--- a/biology/Botanique/Jardin_de_l'Évêché_de_Limoges/Jardin_de_l'Évêché_de_Limoges.xlsx
+++ b/biology/Botanique/Jardin_de_l'Évêché_de_Limoges/Jardin_de_l'Évêché_de_Limoges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_de_l%27%C3%89v%C3%AAch%C3%A9_de_Limoges</t>
+          <t>Jardin_de_l'Évêché_de_Limoges</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin municipal de l'Évêché, plus proprement dénommé au pluriel jardins de l'Évêché (en raison de ses différents étages et aspects), est un jardin public municipal de la ville de Limoges (Haute-Vienne), situé dans le quartier historique de La Cité, en surplomb de la Vienne et de la coulée verte des bords de Vienne.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_de_l%27%C3%89v%C3%AAch%C3%A9_de_Limoges</t>
+          <t>Jardin_de_l'Évêché_de_Limoges</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin est initialement une propriété privée ecclésiastique, dépendance de l'évêché de Limoges. En 1888, la majeure partie du jardin est mise à disposition du public. Après la loi de séparation des Églises et de l'État, le jardin est acquis par la Ville qui l'ouvre en visite libre dès 1911. Endommagé par la présence de baraquements de l'armée pendant la Première Guerre mondiale, le site est une première fois restauré dans les années 1920, puis plus activement en 1976[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin est initialement une propriété privée ecclésiastique, dépendance de l'évêché de Limoges. En 1888, la majeure partie du jardin est mise à disposition du public. Après la loi de séparation des Églises et de l'État, le jardin est acquis par la Ville qui l'ouvre en visite libre dès 1911. Endommagé par la présence de baraquements de l'armée pendant la Première Guerre mondiale, le site est une première fois restauré dans les années 1920, puis plus activement en 1976.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_de_l%27%C3%89v%C3%AAch%C3%A9_de_Limoges</t>
+          <t>Jardin_de_l'Évêché_de_Limoges</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Jardin botanique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été créé dans les années 1950 pour servir de lieu d'observation aux étudiants de la faculté de pharmacie[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été créé dans les années 1950 pour servir de lieu d'observation aux étudiants de la faculté de pharmacie.
 Jardin historique (ou systématique)
 C'est la partie la plus ancienne du jardin, riche de 1 500 espèces végétales, réparties en parterres et rocailles. Elle jouxte la chapelle de l'ancien séminaire de Limoges, établi sur l'emplacement de l'ancienne abbaye Sainte-Marie de la Règle, et qui elle abrite le dépôt légal régional.
 Jardin à thèmes (ou pratique)
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardin_de_l%27%C3%89v%C3%AAch%C3%A9_de_Limoges</t>
+          <t>Jardin_de_l'Évêché_de_Limoges</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Jardin à la française</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est divisé en trois : un espace autour d'un bassin et de jeux d'eau ayant un accès sur la rue de la Cathédrale, une grande esplanade agrémentée d'un bassin et d'un bosquet de tilleuls devant le musée des Beaux-Arts, et un jardin typiquement à la française (symétrie et dessins géométriques).
 Il est en outre bordé d'une aire de jeux.
